--- a/documents/テスト資料/質問内容表示ページ_単体テスト - .xlsx
+++ b/documents/テスト資料/質問内容表示ページ_単体テスト - .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118DAD0-4438-4BAB-A121-18751914DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1269CFA-7006-4BF2-B080-202D234848F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単体テスト</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>成功</t>
     <rPh sb="0" eb="2">
       <t>セイコウ</t>
@@ -149,22 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>失敗項目の修正後テスト</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト項目(小)</t>
     <rPh sb="6" eb="7">
       <t>ショウ</t>
@@ -172,12 +149,489 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正内容</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
+    <t>質問更新</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問削除</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完了/完了</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完了</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容入力</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答する</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了状態でクリック
+未完了ステータスになる</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完了状態でクリック
+完了ステータスになる</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意でファイルを選択</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルをクリック時対応した質問内容表示ページに遷移</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容を入力する(500字以内)</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容文字数超過時エラー</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容が501文字以上の場合登録失敗</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”回答する”ボタンをクリック
+回答内容が登録される</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他回答ボタン</t>
+    <rPh sb="2" eb="5">
+      <t>タカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"その他回答ボタン"をクリック
+登録順（昇順）で２件目以降の回答を表示する</t>
+    <rPh sb="16" eb="19">
+      <t>トウロクジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンメ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタンをクリック
+質問更新ページに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容表示ページ　単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ナイヨウヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリック
+質問と対応した回答削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”回答”ボタンをクリック
+回答フォームが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答未入力時エラー</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ミニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容未入力時に</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ミニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答更新</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答削除</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタンをクリック
+回答更新ページに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリック
+回答を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他回答更新</t>
+    <rPh sb="2" eb="5">
+      <t>タカイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他回答削除</t>
+    <rPh sb="2" eb="5">
+      <t>タカイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付ファイル表示</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問にファイルが添付されている場合文字列
+”添付ファイル”が表示される
+”添付ファイル”をクリック時モーダルウィンドウで画像が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因と修正内容</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputフォームのnameがuser_idになっていたのでans_idに変更</t>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,7 +643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +676,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,17 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -302,61 +760,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,22 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -393,13 +791,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -408,201 +800,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -786,34 +1006,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}" name="テーブル1" displayName="テーブル1" ref="B6:H30" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="B6:H30" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}" name="テーブル1" displayName="テーブル1" ref="B6:H23" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B6:H23" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7B947360-2DB2-4BDB-B18D-D77B6F290F63}" name="NO" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{7B947360-2DB2-4BDB-B18D-D77B6F290F63}" name="NO" dataDxfId="6">
       <calculatedColumnFormula>ROW()-ROW($B$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E00F62F2-3911-4904-8DBB-FD33E21B82CC}" name="テスト項目(大)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7C43C0DE-4736-4174-8B81-5DDA0E93E731}" name="テスト項目(小)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E5D45E38-4099-4DE6-B61C-21893CFE9B53}" name="操作手順" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D01E4F87-D327-48CD-91DC-D527DB9A4209}" name="結果" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{4CB2F8F0-43DF-40EC-9008-D2D02C7645F4}" name="担当者" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B86EBFCB-CC60-4D2C-B4F2-A86D09FA810F}" name="実施日" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}" name="テーブル2" displayName="テーブル2" ref="B37:H42" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B37:H42" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{29138843-D904-4676-A4D6-07D24B4BF3DD}" name="NO" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F4DD42E9-F431-4A12-8FBC-11292EB3C321}" name="テスト項目(大)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1BAD2B73-E4EB-419A-AD45-BAF56DE3B679}" name="テスト項目(小)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{81036B87-229F-4428-83CB-FC0E498E604B}" name="修正内容" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{611EF19B-07C4-4E56-93D5-F225D9448597}" name="結果" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7BCB1C4A-9A11-45A6-B50F-BC305CF992E7}" name="担当者" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{317813A2-C759-4C31-9C5A-AA347693D67E}" name="実施日" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E00F62F2-3911-4904-8DBB-FD33E21B82CC}" name="テスト項目(大)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7C43C0DE-4736-4174-8B81-5DDA0E93E731}" name="テスト項目(小)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E5D45E38-4099-4DE6-B61C-21893CFE9B53}" name="操作手順" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D01E4F87-D327-48CD-91DC-D527DB9A4209}" name="結果" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4CB2F8F0-43DF-40EC-9008-D2D02C7645F4}" name="担当者" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B86EBFCB-CC60-4D2C-B4F2-A86D09FA810F}" name="実施日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1116,9 +1320,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5312975-1390-471A-80BB-D684E35121BB}">
-  <dimension ref="B2:H42"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1133,45 +1337,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="G3" s="9">
         <v>44369</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
@@ -1183,441 +1387,470 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B30" si="0">ROW()-ROW($B$6)</f>
+        <f t="shared" ref="B7:B23" si="0">ROW()-ROW($B$6)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($B$6)</f>
         <v>4</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="B11" s="4">
+        <f>ROW()-ROW($B$6)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <v>44371</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>44371</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($B$6)</f>
         <v>8</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($B$6)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7">
+        <v>44371</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="13" t="s">
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>16</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="13" t="s">
+      <c r="G22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H22" s="7">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7">
+        <v>44371</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="F27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="5">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7">
+        <v>44371</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="19"/>
-    </row>
-    <row r="34" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="B29" s="5">
+        <v>16</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="7">
+        <v>44371</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F30" xr:uid="{6C6762D0-0398-410B-8CE2-B48673163D08}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F23" xr:uid="{6C6762D0-0398-410B-8CE2-B48673163D08}">
       <formula1>結果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G30" xr:uid="{EC6A1F69-806A-41CB-B977-1762CC6ECC13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G23" xr:uid="{EC6A1F69-806A-41CB-B977-1762CC6ECC13}">
       <formula1>担当者</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1637,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1645,24 +1878,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/documents/テスト資料/質問内容表示ページ_単体テスト - .xlsx
+++ b/documents/テスト資料/質問内容表示ページ_単体テスト - .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1269CFA-7006-4BF2-B080-202D234848F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7995AFE5-E129-42E0-9057-9433EB2AC3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
